--- a/outs/libxl_hw.xlsx
+++ b/outs/libxl_hw.xlsx
@@ -346,13 +346,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>114514</v>
-      </c>
-      <c r="C2" t="b">
+        <v>114000</v>
+      </c>
+      <c r="C2">
+        <v>514</v>
+      </c>
+      <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="D2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
+      </c>
+      <c r="F2">
+        <f>SUM(B2:C2)</f>
       </c>
     </row>
   </sheetData>
